--- a/Task/2014-04-10大家电销售进RA/BBG_JL_ODI_ETL_Flow.xlsx
+++ b/Task/2014-04-10大家电销售进RA/BBG_JL_ODI_ETL_Flow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\D\WORK\步步高\Task\2014-04-10大家电销售进RA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\D\WORK\BBG\Task\2014-04-10大家电销售进RA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="507">
   <si>
     <t>Fact Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2149,14 +2149,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SDE_RetailItemSeasonDimension</t>
+  </si>
+  <si>
+    <t>SDE_RetailItemSeasonDimensionLoad</t>
+  </si>
+  <si>
+    <t>SDE_RetailItemSupplierDimension</t>
+  </si>
+  <si>
+    <t>SDE_RetailItemSupplierDimensionDeltaLoad</t>
+  </si>
+  <si>
+    <t>SDE_RetailItemUDADimension</t>
+  </si>
+  <si>
+    <t>SDE_RetailItemUDADimensionLoad</t>
+  </si>
+  <si>
+    <t>W_RTL_UDA_DETAIL_ITEM
+ITEM_MASTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_ITEM_GRP1_DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_ITEM_LANG_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_INVENTORY_PRODUCT_DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_LOC_TRAITS
+ITEM_MASTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL_ItemDimension</t>
+  </si>
+  <si>
+    <t>SIL_ItemDimension.PRODUCT_D</t>
+  </si>
+  <si>
+    <t>W_PRODUCT_DS
+W_PRODUCT_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_PRODUCT_D</t>
+  </si>
+  <si>
+    <t>V_W_RTL_ITEM_D_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_PROD_DIFF_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_ITEM_GRP1_DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>W_RTL_ITEM_GRP2_DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SDE_RetailItemSeasonDimension</t>
-  </si>
-  <si>
-    <t>SDE_RetailItemSeasonDimensionLoad</t>
+    <t>W_RTL_SEASONS_IT_DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITEM_MASTER
@@ -2164,14 +2228,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W_RTL_SEASONS_IT_DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDE_RetailItemSupplierDimension</t>
-  </si>
-  <si>
-    <t>SDE_RetailItemSupplierDimensionDeltaLoad</t>
+    <t>W_RTL_IT_SUPPLIER_DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITEM_MASTER
@@ -2180,61 +2238,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W_RTL_IT_SUPPLIER_DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDE_RetailItemUDADimension</t>
-  </si>
-  <si>
-    <t>SDE_RetailItemUDADimensionLoad</t>
-  </si>
-  <si>
-    <t>W_RTL_UDA_DETAIL_ITEM
-ITEM_MASTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W_RTL_ITEM_GRP1_DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W_RTL_ITEM_LANG_TMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W_INVENTORY_PRODUCT_DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_LOC_TRAITS
-ITEM_MASTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIL_ItemDimension</t>
-  </si>
-  <si>
-    <t>SIL_ItemDimension.PRODUCT_D</t>
-  </si>
-  <si>
-    <t>W_PRODUCT_DS
-W_PRODUCT_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W_PRODUCT_D</t>
-  </si>
-  <si>
-    <t>V_W_RTL_ITEM_D_TMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W_RTL_PROD_DIFF_TMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W_RTL_ITEM_GRP1_DS</t>
+    <t>W_RTL_ITEM_D_TMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2778,6 +2782,96 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2866,6 +2960,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2877,30 +2989,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2909,105 +3012,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3331,24 +3335,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="73" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
@@ -3613,45 +3617,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="49">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="83" t="s">
         <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3668,9 +3672,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="96" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="1" t="s">
         <v>221</v>
       </c>
@@ -3685,12 +3689,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="83" t="s">
         <v>226</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -3704,10 +3708,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="20" t="s">
         <v>227</v>
       </c>
@@ -3717,10 +3721,10 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="20" t="s">
         <v>229</v>
       </c>
@@ -3732,10 +3736,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="20" t="s">
         <v>231</v>
       </c>
@@ -3747,10 +3751,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20" t="s">
         <v>311</v>
@@ -3760,10 +3764,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="20" t="s">
         <v>235</v>
       </c>
@@ -3775,10 +3779,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="20" t="s">
         <v>237</v>
       </c>
@@ -3790,10 +3794,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="20" t="s">
         <v>239</v>
       </c>
@@ -3805,10 +3809,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="20" t="s">
         <v>242</v>
       </c>
@@ -3820,10 +3824,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="20" t="s">
         <v>244</v>
       </c>
@@ -3835,10 +3839,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="20" t="s">
         <v>246</v>
       </c>
@@ -3850,10 +3854,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="20" t="s">
         <v>249</v>
       </c>
@@ -3865,10 +3869,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="20" t="s">
         <v>251</v>
       </c>
@@ -3880,10 +3884,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="20" t="s">
         <v>252</v>
       </c>
@@ -3895,10 +3899,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="20" t="s">
         <v>256</v>
       </c>
@@ -3977,50 +3981,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="85" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="85" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="85" t="s">
         <v>321</v>
       </c>
       <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+      <c r="A3" s="87">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="90" t="s">
         <v>323</v>
       </c>
       <c r="E3" s="31" t="s">
@@ -4035,10 +4039,10 @@
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="31" t="s">
         <v>323</v>
       </c>
@@ -4051,9 +4055,9 @@
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="31" t="s">
         <v>327</v>
       </c>
@@ -4069,12 +4073,12 @@
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="90" t="s">
         <v>330</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -4089,10 +4093,10 @@
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="31" t="s">
         <v>334</v>
       </c>
@@ -4105,9 +4109,9 @@
       <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="31" t="s">
         <v>335</v>
       </c>
@@ -4168,45 +4172,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="49">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="83" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4223,9 +4227,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="14" t="s">
         <v>95</v>
       </c>
@@ -4240,8 +4244,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="14" t="s">
         <v>100</v>
       </c>
@@ -4387,48 +4391,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+      <c r="A3" s="87">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="90" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="90" t="s">
         <v>342</v>
       </c>
       <c r="E3" s="31" t="s">
@@ -4443,85 +4447,85 @@
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="90" t="s">
         <v>344</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="90" t="s">
         <v>343</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="64"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="64"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="65"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="64"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="31" t="s">
         <v>351</v>
       </c>
@@ -4537,9 +4541,9 @@
       <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="63" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="93" t="s">
         <v>354</v>
       </c>
       <c r="D11" s="31" t="s">
@@ -4557,9 +4561,9 @@
       <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="31" t="s">
         <v>357</v>
       </c>
@@ -4576,13 +4580,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A3:A12"/>
@@ -4591,6 +4588,13 @@
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4621,75 +4625,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="57">
+      <c r="A3" s="87">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="90" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="90" t="s">
         <v>362</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="90" t="s">
         <v>362</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="90" t="s">
         <v>364</v>
       </c>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="62"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="31" t="s">
         <v>365</v>
       </c>
@@ -4705,9 +4709,9 @@
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="93" t="s">
         <v>368</v>
       </c>
       <c r="D6" s="31" t="s">
@@ -4725,9 +4729,9 @@
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="31" t="s">
         <v>372</v>
       </c>
@@ -4789,75 +4793,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="76">
+      <c r="A3" s="101">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="101" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="104" t="s">
         <v>382</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="104" t="s">
         <v>382</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="109" t="s">
         <v>396</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="104" t="s">
         <v>397</v>
       </c>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="75"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="34" t="s">
         <v>384</v>
       </c>
@@ -4873,41 +4877,41 @@
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="80" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="104" t="s">
         <v>388</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="104" t="s">
         <v>392</v>
       </c>
-      <c r="H6" s="64"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="72"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="64"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="34" t="s">
         <v>393</v>
       </c>
@@ -4924,6 +4928,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C5"/>
@@ -4931,18 +4947,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4973,75 +4977,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="57">
+      <c r="A3" s="87">
         <v>1</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="90" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="90" t="s">
         <v>399</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="90" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="111" t="s">
         <v>400</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="90" t="s">
         <v>401</v>
       </c>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="62"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="31" t="s">
         <v>402</v>
       </c>
@@ -5057,9 +5061,9 @@
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="93" t="s">
         <v>405</v>
       </c>
       <c r="D6" s="31" t="s">
@@ -5077,9 +5081,9 @@
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="31" t="s">
         <v>409</v>
       </c>
@@ -5096,6 +5100,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
@@ -5106,11 +5115,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5141,48 +5145,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="84">
+      <c r="A3" s="117">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="116" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="116" t="s">
         <v>414</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="116" t="s">
         <v>415</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -5197,10 +5201,10 @@
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="84" x14ac:dyDescent="0.15">
-      <c r="A4" s="84"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="38" t="s">
         <v>417</v>
       </c>
@@ -5213,44 +5217,37 @@
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="84"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116" t="s">
         <v>419</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="116" t="s">
         <v>420</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="116" t="s">
         <v>420</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="118" t="s">
         <v>421</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="116" t="s">
         <v>422</v>
       </c>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="83"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
@@ -5260,6 +5257,13 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5275,16 +5279,16 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="26.375" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.75" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="89"/>
+    <col min="1" max="2" width="26.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.2">
@@ -5304,310 +5308,310 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="116" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="68" t="s">
         <v>449</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="68" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="69" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="66" customFormat="1" ht="90" x14ac:dyDescent="0.15">
+      <c r="A4" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="66" customFormat="1" ht="90" x14ac:dyDescent="0.15">
+      <c r="A5" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A6" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>468</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="62" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>472</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="59" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="56" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="53" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>503</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E16" s="52" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="50" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="E17" s="49" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="116" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
-        <v>448</v>
-      </c>
-      <c r="B3" s="115" t="s">
-        <v>448</v>
-      </c>
-      <c r="C3" s="115" t="s">
-        <v>450</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>451</v>
-      </c>
-      <c r="E3" s="118" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="113" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A4" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>455</v>
-      </c>
-      <c r="E4" s="112" t="s">
+    <row r="18" spans="1:5" s="46" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="113" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A5" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="114" t="s">
-        <v>455</v>
-      </c>
-      <c r="E5" s="112" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A6" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="112" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6" s="114" t="s">
-        <v>459</v>
-      </c>
-      <c r="E6" s="112" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>461</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>462</v>
-      </c>
-      <c r="E7" s="112" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="B8" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>464</v>
-      </c>
-      <c r="D8" s="112" t="s">
-        <v>434</v>
-      </c>
-      <c r="E8" s="112" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="B9" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="112" t="s">
-        <v>466</v>
-      </c>
-      <c r="D9" s="112" t="s">
-        <v>434</v>
-      </c>
-      <c r="E9" s="112" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>468</v>
-      </c>
-      <c r="D10" s="112" t="s">
-        <v>434</v>
-      </c>
-      <c r="E10" s="112" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="109" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="108" t="s">
-        <v>470</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>470</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>471</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>472</v>
-      </c>
-      <c r="E11" s="111" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="106" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="105" t="s">
-        <v>473</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>473</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="107" t="s">
-        <v>498</v>
-      </c>
-      <c r="E12" s="105" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="106" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="105" t="s">
-        <v>473</v>
-      </c>
-      <c r="B13" s="105" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13" s="105" t="s">
-        <v>477</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>475</v>
-      </c>
-      <c r="E13" s="105" t="s">
+      <c r="E19" s="43" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="106" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="105" t="s">
-        <v>473</v>
-      </c>
-      <c r="B14" s="105" t="s">
-        <v>473</v>
-      </c>
-      <c r="C14" s="105" t="s">
-        <v>478</v>
-      </c>
-      <c r="D14" s="105" t="s">
-        <v>475</v>
-      </c>
-      <c r="E14" s="105" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="103" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="102" t="s">
-        <v>480</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>480</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>481</v>
-      </c>
-      <c r="D15" s="104" t="s">
-        <v>482</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="100" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="99" t="s">
-        <v>484</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>484</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>485</v>
-      </c>
-      <c r="D16" s="101" t="s">
-        <v>486</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="97" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="96" t="s">
-        <v>488</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>488</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>489</v>
-      </c>
-      <c r="D17" s="98" t="s">
-        <v>490</v>
-      </c>
-      <c r="E17" s="96" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="93" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>493</v>
-      </c>
-      <c r="D18" s="94" t="s">
-        <v>494</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="90" t="s">
-        <v>499</v>
-      </c>
-      <c r="B19" s="90" t="s">
-        <v>499</v>
-      </c>
-      <c r="C19" s="90" t="s">
-        <v>500</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>501</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5638,36 +5642,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -5693,22 +5697,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="44">
+      <c r="A4" s="74">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="76" t="s">
         <v>432</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="76" t="s">
         <v>434</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -5716,23 +5720,23 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="6" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="6" t="s">
         <v>437</v>
       </c>
@@ -5783,45 +5787,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="50">
+      <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="77" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -5838,9 +5842,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="96" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
@@ -5855,8 +5859,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5874,16 +5878,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="49">
+      <c r="A6" s="79">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="77" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -5897,10 +5901,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
@@ -5981,45 +5985,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="49">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="83" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -6036,9 +6040,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="132" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
@@ -6053,12 +6057,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="77" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -6072,10 +6076,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
@@ -6087,10 +6091,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
@@ -6102,10 +6106,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="2" t="s">
         <v>70</v>
       </c>
@@ -6117,13 +6121,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="49">
+      <c r="A9" s="79">
         <v>2</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="83" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -6140,9 +6144,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
@@ -6157,13 +6161,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="49">
+      <c r="A11" s="79">
         <v>3</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="2" t="s">
         <v>62</v>
       </c>
@@ -6178,9 +6182,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
@@ -6201,7 +6205,7 @@
       <c r="B13" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
@@ -6222,7 +6226,7 @@
       <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
@@ -6270,7 +6274,7 @@
       <c r="B21" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="79" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -6284,7 +6288,7 @@
       <c r="B22" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="21" t="s">
         <v>297</v>
       </c>
@@ -6409,6 +6413,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C8"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -6416,17 +6431,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6458,48 +6462,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="50">
+      <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="77" t="s">
         <v>107</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -6508,28 +6512,28 @@
       <c r="F3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="77" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="96" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="16" t="s">
         <v>111</v>
       </c>
@@ -6541,8 +6545,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A6" s="54"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="16" t="s">
         <v>116</v>
       </c>
@@ -6627,48 +6631,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="49">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="83" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -6682,10 +6686,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="18" t="s">
         <v>129</v>
       </c>
@@ -6697,9 +6701,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83" t="s">
         <v>148</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -6716,9 +6720,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="18" t="s">
         <v>147</v>
       </c>
@@ -6756,13 +6760,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="49">
+      <c r="A8" s="79">
         <v>3</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="83" t="s">
         <v>135</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -6779,9 +6783,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="18" t="s">
         <v>138</v>
       </c>
@@ -6843,48 +6847,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="49">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="83" t="s">
         <v>164</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -6898,10 +6902,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="18" t="s">
         <v>166</v>
       </c>
@@ -6913,10 +6917,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="18" t="s">
         <v>168</v>
       </c>
@@ -6928,12 +6932,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="83" t="s">
         <v>160</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -6947,10 +6951,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="18" t="s">
         <v>171</v>
       </c>
@@ -6985,16 +6989,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53">
+      <c r="A9" s="83">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="83" t="s">
         <v>175</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -7008,10 +7012,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="18" t="s">
         <v>179</v>
       </c>
@@ -7024,6 +7028,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7031,16 +7045,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7072,45 +7076,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="49">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="83" t="s">
         <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -7127,9 +7131,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="1" t="s">
         <v>191</v>
       </c>

--- a/Task/2014-04-10大家电销售进RA/BBG_JL_ODI_ETL_Flow.xlsx
+++ b/Task/2014-04-10大家电销售进RA/BBG_JL_ODI_ETL_Flow.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="508">
   <si>
     <t>Fact Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2239,6 +2239,10 @@
   </si>
   <si>
     <t>W_RTL_ITEM_D_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailItemDimension</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2960,6 +2964,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2968,33 +2987,27 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3003,15 +3016,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4580,6 +4584,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A3:A12"/>
@@ -4588,13 +4599,6 @@
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4825,43 +4829,43 @@
       <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="101">
+      <c r="A3" s="106">
         <v>1</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="101" t="s">
         <v>382</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="101" t="s">
         <v>382</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="101" t="s">
         <v>383</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="103" t="s">
         <v>396</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="101" t="s">
         <v>397</v>
       </c>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="106"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="106"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="34" t="s">
         <v>384</v>
       </c>
@@ -4877,41 +4881,41 @@
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="107" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="101" t="s">
         <v>388</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="101" t="s">
         <v>391</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="101" t="s">
         <v>392</v>
       </c>
       <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="108"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="34" t="s">
         <v>393</v>
       </c>
@@ -4928,11 +4932,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4940,13 +4946,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5100,11 +5104,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
@@ -5115,6 +5114,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5168,25 +5172,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="117">
+      <c r="A3" s="114">
         <v>1</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="113" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="113" t="s">
         <v>414</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="113" t="s">
         <v>415</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -5201,10 +5205,10 @@
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="84" x14ac:dyDescent="0.15">
-      <c r="A4" s="117"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="38" t="s">
         <v>417</v>
       </c>
@@ -5217,37 +5221,44 @@
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="117"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116" t="s">
+      <c r="A5" s="114"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113" t="s">
         <v>419</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="113" t="s">
         <v>420</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="113" t="s">
         <v>420</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="115" t="s">
         <v>421</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="113" t="s">
         <v>422</v>
       </c>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="117"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="113"/>
       <c r="H6" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
@@ -5257,13 +5268,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5279,8 +5283,8 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5344,7 +5348,7 @@
     </row>
     <row r="4" spans="1:5" s="66" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>453</v>
@@ -6413,17 +6417,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C8"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -6431,6 +6424,17 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7028,16 +7032,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7045,6 +7039,16 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Task/2014-04-10大家电销售进RA/BBG_JL_ODI_ETL_Flow.xlsx
+++ b/Task/2014-04-10大家电销售进RA/BBG_JL_ODI_ETL_Flow.xlsx
@@ -2124,10 +2124,6 @@
     <t>W_RTL_INVENTORY_PRODUCT_D_TMP</t>
   </si>
   <si>
-    <t>W_RTL_INVENTORY_PRODUCT_D_TMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SDE_RetailItemLocationDimensionLoad</t>
   </si>
   <si>
@@ -2184,11 +2180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITEM_LOC_TRAITS
-ITEM_MASTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SIL_ItemDimension</t>
   </si>
   <si>
@@ -2216,19 +2207,6 @@
   </si>
   <si>
     <t>W_RTL_ITEM_GRP2_DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W_RTL_SEASONS_IT_DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_MASTER
-ITEM_SEASONS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W_RTL_IT_SUPPLIER_DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2243,6 +2221,28 @@
   </si>
   <si>
     <t>SDE_RetailItemDimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_INVENTORY_PRODUCT_D_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_LOC_TRAITS
+ITEM_MASTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SEASON_IT_DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_MASTER
+ITEM_SEASONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_IT_SUPPLIER_DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2964,6 +2964,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2975,30 +2993,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3007,15 +3016,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4584,13 +4584,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A3:A12"/>
@@ -4599,6 +4592,13 @@
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4829,43 +4829,43 @@
       <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="106">
+      <c r="A3" s="101">
         <v>1</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="101" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="104" t="s">
         <v>382</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="104" t="s">
         <v>382</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="109" t="s">
         <v>396</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="104" t="s">
         <v>397</v>
       </c>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="105"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="34" t="s">
         <v>384</v>
       </c>
@@ -4881,41 +4881,41 @@
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="110" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="104" t="s">
         <v>388</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="104" t="s">
         <v>392</v>
       </c>
       <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="102"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="105"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="34" t="s">
         <v>393</v>
       </c>
@@ -4932,6 +4932,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C5"/>
@@ -4939,18 +4951,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5104,6 +5104,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
@@ -5114,11 +5119,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5172,25 +5172,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="114">
+      <c r="A3" s="117">
         <v>1</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="116" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="116" t="s">
         <v>414</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="116" t="s">
         <v>415</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -5205,10 +5205,10 @@
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="84" x14ac:dyDescent="0.15">
-      <c r="A4" s="114"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="38" t="s">
         <v>417</v>
       </c>
@@ -5221,44 +5221,37 @@
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="114"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116" t="s">
         <v>419</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="116" t="s">
         <v>420</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="116" t="s">
         <v>420</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="118" t="s">
         <v>421</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="116" t="s">
         <v>422</v>
       </c>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="114"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="113"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
@@ -5268,6 +5261,13 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5283,8 +5283,8 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5323,10 +5323,10 @@
         <v>449</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="69" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
@@ -5343,12 +5343,12 @@
         <v>451</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="66" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>453</v>
@@ -5360,7 +5360,7 @@
         <v>455</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="66" customFormat="1" ht="90" x14ac:dyDescent="0.15">
@@ -5425,7 +5425,7 @@
         <v>464</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E8" s="65" t="s">
         <v>465</v>
@@ -5493,10 +5493,10 @@
         <v>474</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
@@ -5507,13 +5507,13 @@
         <v>473</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D13" s="58" t="s">
         <v>475</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
@@ -5524,98 +5524,98 @@
         <v>473</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>475</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="56" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A15" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="C15" s="55" t="s">
+      <c r="D15" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="57" t="s">
-        <v>482</v>
-      </c>
       <c r="E15" s="55" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="53" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>483</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>484</v>
-      </c>
       <c r="D16" s="54" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="50" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>485</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>486</v>
-      </c>
       <c r="D17" s="51" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="46" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A18" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>487</v>
-      </c>
-      <c r="C18" s="45" t="s">
+      <c r="D18" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="E18" s="48" t="s">
         <v>489</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="C19" s="43" t="s">
+      <c r="E19" s="43" t="s">
         <v>495</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>496</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -6417,6 +6417,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C8"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -6424,17 +6435,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7032,6 +7032,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7039,16 +7049,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
